--- a/dataset_v1/task_sheet_answers/SummerSales/1_SummerSales/1_SummerSales_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/SummerSales/1_SummerSales/1_SummerSales_gt1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1536" yWindow="1536" windowWidth="13488" windowHeight="10932" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10932" windowWidth="13488" xWindow="1536" yWindow="1536"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="28" r:id="rId3"/>
+    <pivotCache cacheId="28" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -60,31 +60,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="1" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="1" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <pivotSource>
     <name>[1_SummerSales.xlsx]Sheet2!PivotTable10</name>
     <fmtId val="0"/>
@@ -166,11 +166,11 @@
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -183,7 +183,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr altLang="zh-CN" lang="en-US"/>
               <a:t>Revenue of each product</a:t>
             </a:r>
           </a:p>
@@ -191,18 +191,18 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -215,7 +215,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
@@ -225,10 +225,10 @@
       <pivotFmt>
         <idx val="0"/>
         <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
@@ -236,7 +236,7 @@
         <marker>
           <symbol val="none"/>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -244,20 +244,20 @@
         <dLbl>
           <idx val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
               <a:spAutoFit/>
             </a:bodyPr>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lstStyle/>
+            <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -270,7 +270,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
@@ -305,10 +305,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -422,8 +422,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -435,11 +435,11 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -452,7 +452,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -473,7 +473,7 @@
         <axPos val="b"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -490,18 +490,18 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -514,7 +514,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -528,18 +528,18 @@
       <legendPos val="r"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -552,7 +552,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
@@ -561,26 +561,11 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -600,9 +585,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -612,27 +597,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="hongxin li" refreshedDate="45053.6664568287" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" r:id="rId1">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="8" minRefreshableVersion="3" recordCount="29" refreshedBy="hongxin li" refreshedDate="45053.6664568287" refreshedVersion="8" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G30" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
-    <cacheField name="Date" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="43954" maxValue="44090"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Date" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="44090" minValue="43954"/>
     </cacheField>
-    <cacheField name="Month" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Month" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="0"/>
     </cacheField>
-    <cacheField name="Week" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="19" maxValue="38"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Week" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="38" minValue="19"/>
     </cacheField>
-    <cacheField name="Promotion" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Promotion" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="0"/>
     </cacheField>
-    <cacheField name="Sales Channel" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Sales Channel" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="0"/>
     </cacheField>
-    <cacheField name="Product" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Product" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="11">
         <s v="Doublers"/>
         <s v="Sunshine"/>
@@ -647,8 +632,8 @@
         <s v="Aspen"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Revenue ($)" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="20.01" maxValue="479.13"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Revenue ($)" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="479.13" minValue="20.01"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -921,31 +906,31 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="28" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="28" chartFormat="1" colGrandTotals="1" compact="1" compactData="1" createdVersion="8" dataCaption="Values" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable10" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="8" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="A1:B13"/>
   <pivotFields count="7">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="ascending" defaultSubtotal="1">
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="ascending" subtotalTop="1" topAutoShow="1">
       <items count="12">
-        <item t="data" sd="1" x="10"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="9"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="8"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="default" sd="1"/>
+        <item sd="1" t="data" x="10"/>
+        <item sd="1" t="data" x="7"/>
+        <item sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="9"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="8"/>
+        <item sd="1" t="data" x="6"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="default"/>
       </items>
       <autoSortScope>
-        <pivotArea type="normal" dataOnly="0" outline="0" fieldPosition="0">
+        <pivotArea dataOnly="0" fieldPosition="0" outline="0" type="normal">
           <references count="1">
             <reference field="4294967294" selected="0">
               <x v="0"/>
@@ -954,58 +939,58 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
   <rowItems count="12">
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="1"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="6"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="5"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="3"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="10"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="9"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="8"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="4"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="2"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="0"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="7"/>
     </i>
-    <i t="grand" r="0" i="0">
+    <i i="0" r="0" t="grand">
       <x v="0"/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i i="0" r="0" t="data"/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Revenue ($)" fld="6" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField baseField="0" baseItem="0" fld="6" name="Sum of Revenue ($)" showDataAs="normal" subtotal="sum"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+      <pivotArea dataOnly="1" fieldPosition="0" outline="0" type="data">
         <references count="1">
           <reference field="4294967294" selected="0">
             <x v="0"/>
@@ -1014,7 +999,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
 </pivotTableDefinition>
 </file>
 
@@ -1314,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1327,8 +1312,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="14.44140625" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="20.5546875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="4" width="14.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="4" width="20.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1464,8 +1449,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1483,11 +1468,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="10.109375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="12.77734375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="14.77734375" customWidth="1" style="4" min="5" max="5"/>
-    <col width="12" customWidth="1" style="4" min="6" max="6"/>
-    <col width="12.33203125" customWidth="1" style="4" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="10.109375"/>
+    <col customWidth="1" max="4" min="4" style="4" width="12.77734375"/>
+    <col customWidth="1" max="5" min="5" style="4" width="14.77734375"/>
+    <col customWidth="1" max="6" min="6" style="4" width="12"/>
+    <col customWidth="1" max="7" min="7" style="4" width="12.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2427,6 +2412,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>